--- a/进度管理/里程碑表.xlsx
+++ b/进度管理/里程碑表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\gitfile\UXD202005_Repository\进度管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD42FE-E0B2-4D90-82D3-2A6BFA971D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC34429A-FAB0-438F-AC81-29005F476830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
-  <si>
-    <t>计划开始时间</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>概要设计</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -106,6 +103,14 @@
   </si>
   <si>
     <t>内部走查</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -499,161 +504,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43926</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="4">
+        <v>43926</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43940</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43919</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43926</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43947</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43961</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43975</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43982</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43982</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>43926</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>43926</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43940</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
-        <v>43919</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43991</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>43926</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>43947</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>43961</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>43975</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4">
-        <v>43982</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C13" s="4">
+        <v>43991</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="4">
-        <v>43982</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>43991</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4">
-        <v>43991</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
